--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\unityprojects\SoundSystem\Packages\SoundSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941B0C57-40EE-4596-9326-4ACD2FA075BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F78B1CB-75FA-43E7-A941-CCCB45A5D4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{023D6064-CF59-4CC4-9B91-C1A047F0B054}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{023D6064-CF59-4CC4-9B91-C1A047F0B054}"/>
   </bookViews>
   <sheets>
     <sheet name="BGM" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>carsor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>decide</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -82,10 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>carsor.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cave.ogg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -118,6 +110,14 @@
   </si>
   <si>
     <t>background music for cave stage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cursor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cursor.wav</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -493,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4431102B-5869-42FB-B7EF-3A992BAD770F}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -529,19 +529,19 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBC242C-05D8-4C1A-83EA-34E7E122AFB9}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -580,35 +580,35 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
